--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>logF_BusinessProcessName</t>
-  </si>
-  <si>
-    <t>Framework</t>
   </si>
   <si>
     <t>Orchestrator queue Name. The value must match with the queue name defined on Orchestrator.</t>
@@ -323,9 +320,6 @@
     <t>SE_EmailSubject</t>
   </si>
   <si>
-    <t>Fin009-AccountPayable - Successful Run</t>
-  </si>
-  <si>
     <t>Fin009-Accounts Payable - System Exception</t>
   </si>
   <si>
@@ -339,13 +333,25 @@
   </si>
   <si>
     <t>msedge,excel</t>
+  </si>
+  <si>
+    <t>Fin009-Output Reports</t>
+  </si>
+  <si>
+    <t>Fin009-AccountPayable - Output Reports</t>
+  </si>
+  <si>
+    <t>LayoutName</t>
+  </si>
+  <si>
+    <t>SAP - Fin009</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -375,6 +381,12 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF346187"/>
+      <name val="72"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,7 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -409,6 +421,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -726,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -774,30 +787,30 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.5">
       <c r="A4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -807,16 +820,16 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -824,7 +837,7 @@
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -832,7 +845,7 @@
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -841,135 +854,144 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
         <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
         <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
         <v>72</v>
-      </c>
-      <c r="B18" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
-      </c>
-      <c r="B19" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
         <v>78</v>
-      </c>
-      <c r="B21" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B29" t="s">
         <v>98</v>
       </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B32" s="7"/>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2005,18 +2027,18 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.5">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2040,7 +2062,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -2062,7 +2084,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
@@ -2073,7 +2095,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -2084,53 +2106,53 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" spans="1:3" ht="29">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.5">
@@ -2138,94 +2160,94 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
         <v>58</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
         <v>60</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
         <v>64</v>
-      </c>
-      <c r="B33" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3216,7 +3238,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -3246,35 +3268,35 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -345,6 +345,12 @@
   </si>
   <si>
     <t>SAP - Fin009</t>
+  </si>
+  <si>
+    <t>Time In Seconds</t>
+  </si>
+  <si>
+    <t>RetryInterval</t>
   </si>
 </sst>
 </file>
@@ -739,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -982,7 +988,7 @@
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B31" t="s">
@@ -1971,10 +1977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z991"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2024,233 +2030,243 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" ht="14.5">
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="43.5">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" spans="1:3" ht="29">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="29">
+      <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="b">
+      <c r="B18" t="b">
         <v>0</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14.5">
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="14.5">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
         <v>101</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3208,6 +3224,7 @@
     <row r="989" ht="14.25" customHeight="1"/>
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -281,12 +281,6 @@
     <t>Capybara Processes/Fin009-Account Payable</t>
   </si>
   <si>
-    <t>SuccessEmailMessage</t>
-  </si>
-  <si>
-    <t>Bot Processed Successfully</t>
-  </si>
-  <si>
     <t>SEEmailMessage</t>
   </si>
   <si>
@@ -320,15 +314,9 @@
     <t>SE_EmailSubject</t>
   </si>
   <si>
-    <t>Fin009-Accounts Payable - System Exception</t>
-  </si>
-  <si>
     <t>ProcessOwnerEmail</t>
   </si>
   <si>
-    <t>EmailTo</t>
-  </si>
-  <si>
     <t>Applications</t>
   </si>
   <si>
@@ -338,9 +326,6 @@
     <t>Fin009-Output Reports</t>
   </si>
   <si>
-    <t>Fin009-AccountPayable - Output Reports</t>
-  </si>
-  <si>
     <t>LayoutName</t>
   </si>
   <si>
@@ -351,6 +336,42 @@
   </si>
   <si>
     <t>RetryInterval</t>
+  </si>
+  <si>
+    <t>EmailTo_Business</t>
+  </si>
+  <si>
+    <t>EmailTo_Support</t>
+  </si>
+  <si>
+    <t>SuccessEmailMessage_BothFiles</t>
+  </si>
+  <si>
+    <t>Successfully downloaded both the files</t>
+  </si>
+  <si>
+    <t>SuccessEmailMessage_ManageFilePath</t>
+  </si>
+  <si>
+    <t>Downloaded Manage Customer Items &amp; No Data Found for GL Line Items File</t>
+  </si>
+  <si>
+    <t>SuccessEmailMessage_GLFilePath</t>
+  </si>
+  <si>
+    <t>Downloaded GL Line Items File &amp; No Data Found for Manage Customer Items</t>
+  </si>
+  <si>
+    <t>SuccessEmailMessage_NoData</t>
+  </si>
+  <si>
+    <t>No Data found for Both the Files</t>
+  </si>
+  <si>
+    <t>Fin009-Account Receivable - Output Reports</t>
+  </si>
+  <si>
+    <t>Fin009-Account Receivable- System Exception</t>
   </si>
 </sst>
 </file>
@@ -743,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -826,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -926,94 +947,115 @@
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>86</v>
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>88</v>
+      <c r="A24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="3"/>
+        <v>109</v>
+      </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A26" t="s">
-        <v>93</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>91</v>
+      <c r="A27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+        <v>93</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>105</v>
+      <c r="A31" t="s">
+        <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A34" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1968,6 +2010,9 @@
     <row r="1000" ht="14.25" customHeight="1"/>
     <row r="1001" ht="14.25" customHeight="1"/>
     <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1979,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2038,13 +2083,13 @@
     </row>
     <row r="3" spans="1:26" ht="14.5">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="43.5">
@@ -2177,10 +2222,10 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3236,7 +3281,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3285,21 +3330,21 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A3" t="s">
-        <v>100</v>
+      <c r="A3" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>84</v>
@@ -3316,7 +3361,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9004896_adm\Documents\UiPath\Capybara_Capyfin009_OutputReport\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9005130_adm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -266,9 +266,6 @@
     <t>SAPFioriURL</t>
   </si>
   <si>
-    <t>https://launchpad-qa.orica.net/fiori#Shell-home</t>
-  </si>
-  <si>
     <t>SAP_Fiori_Credentials</t>
   </si>
   <si>
@@ -372,13 +369,19 @@
   </si>
   <si>
     <t>Fin009-Account Receivable- System Exception</t>
+  </si>
+  <si>
+    <t>SmallDelay</t>
+  </si>
+  <si>
+    <t>https://launchpad.orica.net/fiori#Shell-home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -401,12 +404,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
@@ -432,11 +429,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -447,11 +443,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -766,16 +760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.54296875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -823,7 +817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="43.5">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
         <v>30</v>
       </c>
@@ -832,22 +826,22 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.5">
+    <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="29">
+    <row r="6" spans="1:26" ht="30">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -883,16 +877,16 @@
       <c r="A12" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>80</v>
+      <c r="B12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
@@ -948,100 +942,100 @@
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
         <v>112</v>
-      </c>
-      <c r="B23" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
         <v>110</v>
-      </c>
-      <c r="B24" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" t="s">
         <v>108</v>
-      </c>
-      <c r="B25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
         <v>87</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
         <v>100</v>
       </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2024,16 +2018,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
-    <col min="2" max="2" width="64.90625" customWidth="1"/>
-    <col min="3" max="3" width="75.453125" customWidth="1"/>
-    <col min="4" max="26" width="8.6328125" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2070,7 +2064,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="29">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2081,18 +2075,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.5">
+    <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="43.5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="45">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2206,7 +2200,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:3" ht="29">
+    <row r="18" spans="1:3" ht="45">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2217,15 +2211,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14.5">
+    <row r="19" spans="1:3">
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
         <v>97</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
@@ -3281,15 +3275,15 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.90625" customWidth="1"/>
-    <col min="2" max="2" width="30.08984375" customWidth="1"/>
-    <col min="3" max="3" width="60.36328125" customWidth="1"/>
-    <col min="4" max="26" width="65.453125" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.42578125" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3330,49 +3324,59 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a9005130_adm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.lara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEFC796-618D-464A-9E32-C8624CF1A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -212,9 +213,6 @@
     <t>FilterName2</t>
   </si>
   <si>
-    <t>JE Created By</t>
-  </si>
-  <si>
     <t>InputFilterValue2</t>
   </si>
   <si>
@@ -374,14 +372,17 @@
     <t>SmallDelay</t>
   </si>
   <si>
-    <t>https://launchpad.orica.net/fiori#Shell-home</t>
+    <t>https://launchpad-dt.orica.net/fiori#Shell-home</t>
+  </si>
+  <si>
+    <t>Journal Entry Created By</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -404,6 +405,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
@@ -429,23 +436,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -757,11 +767,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -828,10 +838,10 @@
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -841,7 +851,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>22</v>
@@ -875,167 +885,167 @@
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>116</v>
+        <v>78</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
         <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s">
         <v>109</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
         <v>107</v>
-      </c>
-      <c r="B25" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
         <v>86</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
         <v>99</v>
       </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B35" s="6"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2009,17 +2019,23 @@
     <row r="1005" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" location="Shell-home" xr:uid="{1BD81B70-B676-4913-9681-47932565C4C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2077,13 +2093,13 @@
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="45">
@@ -2216,10 +2232,10 @@
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" t="s">
         <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2267,10 +2283,10 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2295,15 +2311,15 @@
         <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
         <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3267,11 +3283,14 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3324,57 +3343,57 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
@@ -4375,5 +4394,8 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 General</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jessica.lara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEFC796-618D-464A-9E32-C8624CF1A07B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A97DA3-DADE-4BAD-81E9-A2CCC85081BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,7 +372,7 @@
     <t>SmallDelay</t>
   </si>
   <si>
-    <t>https://launchpad-dt.orica.net/fiori#Shell-home</t>
+    <t>https://launchpad.orica.net/fiori#Shell-home</t>
   </si>
   <si>
     <t>Journal Entry Created By</t>
@@ -382,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -405,12 +405,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
@@ -436,26 +430,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -770,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -887,7 +878,7 @@
       <c r="A12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1045,7 +1036,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B35" s="7"/>
+      <c r="B35" s="6"/>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2019,14 +2010,8 @@
     <row r="1005" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" location="Shell-home" xr:uid="{1BD81B70-B676-4913-9681-47932565C4C4}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2035,7 +2020,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3283,9 +3268,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
 
@@ -4394,8 +4376,5 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;10&amp;K000000 General</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>